--- a/biology/Botanique/Fuchsia_kirkii/Fuchsia_kirkii.xlsx
+++ b/biology/Botanique/Fuchsia_kirkii/Fuchsia_kirkii.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Fuchsia kirkii est une espèce de plantes dicotylédones de la famille des Onagraceae. Ce fuchsia est originaire du sud de la Nouvelle-Zélande[2].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Fuchsia kirkii est une espèce de plantes dicotylédones de la famille des Onagraceae. Ce fuchsia est originaire du sud de la Nouvelle-Zélande.
 </t>
         </is>
       </c>
@@ -512,6 +524,8 @@
         </is>
       </c>
       <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -537,11 +551,13 @@
           <t>Classification</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">L'espèce a été publiée en 1868 par le botaniste Thomas Kirk, à la suite des travaux de description de Joseph Dalton Hooker. L'épithète spécifique « kirkii » signifie « de Kirk ».
-Publication originale : Transactions and Proceedings of the New Zealand Institute 1: 92. 1868[3].
-Le taxon homonyme Fuchsia kirkii Hook. f. tout court, publié en 1871, est quant à lui synonyme de Fuchsia procumbens  R. Cunn. ex A. Cunn[4],[5].
+Publication originale : Transactions and Proceedings of the New Zealand Institute 1: 92. 1868.
+Le taxon homonyme Fuchsia kirkii Hook. f. tout court, publié en 1871, est quant à lui synonyme de Fuchsia procumbens  R. Cunn. ex A. Cunn,.
 </t>
         </is>
       </c>
